--- a/data/trans_orig/Q5414-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6168</v>
+        <v>6252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01414360614957559</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04781496393678877</v>
+        <v>0.04846892949424545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9048</v>
+        <v>8511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01189908193744203</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003293686166492686</v>
+        <v>0.003278668423824695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03324054351087071</v>
+        <v>0.03126562076356052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1814</v>
+        <v>1674</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11759</v>
+        <v>11858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01262071859040742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00452028937306524</v>
+        <v>0.004173468654455822</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02930878391326643</v>
+        <v>0.02955673844156386</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1786</v>
+        <v>1701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10164</v>
+        <v>9817</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03542804258554929</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01384689751490158</v>
+        <v>0.01318861491325876</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07879671433295661</v>
+        <v>0.07610511648159492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7236</v>
+        <v>7334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007673629044532523</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02658260330473288</v>
+        <v>0.02694379184461936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2916</v>
+        <v>2927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13491</v>
+        <v>13205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01659694650508161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007268795435764312</v>
+        <v>0.007295912915289778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03362602160384684</v>
+        <v>0.03291451601720656</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>122597</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116870</v>
+        <v>116737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126159</v>
+        <v>126231</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9504283512648751</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9060318337126859</v>
+        <v>0.9049997220756288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9780485843548498</v>
+        <v>0.9786017171320559</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -907,19 +907,19 @@
         <v>266884</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>259516</v>
+        <v>259905</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>270140</v>
+        <v>270269</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9804272890180254</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9533588080039178</v>
+        <v>0.9547874845277123</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9923885654480251</v>
+        <v>0.9928628815375283</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>392</v>
@@ -928,19 +928,19 @@
         <v>389481</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>380866</v>
+        <v>381650</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>394820</v>
+        <v>395163</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9707823349045109</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9493100351515109</v>
+        <v>0.9512640089651948</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9840910460611287</v>
+        <v>0.9849453951249927</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6122</v>
+        <v>5508</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01067776576035392</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03766385091299772</v>
+        <v>0.03388091171810632</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1100,19 +1100,19 @@
         <v>3157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8141</v>
+        <v>8622</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01550597296324766</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004417720274547543</v>
+        <v>0.004439907803446374</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03998475180630955</v>
+        <v>0.04234635777667107</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1121,19 +1121,19 @@
         <v>4893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11252</v>
+        <v>11063</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01336246501276728</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004819055009435745</v>
+        <v>0.004797955668715669</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03072930609321373</v>
+        <v>0.03021410969583609</v>
       </c>
     </row>
     <row r="10">
@@ -1150,7 +1150,7 @@
         <v>160819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156433</v>
+        <v>157047</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>162555</v>
@@ -1159,7 +1159,7 @@
         <v>0.989322234239646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9623361490870023</v>
+        <v>0.966119088281895</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1171,19 +1171,19 @@
         <v>200440</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>195456</v>
+        <v>194975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202698</v>
+        <v>202693</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9844940270367524</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9600152481936902</v>
+        <v>0.9576536422233286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9955822797254525</v>
+        <v>0.9955600921965536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -1192,19 +1192,19 @@
         <v>361260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>354901</v>
+        <v>355090</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364388</v>
+        <v>364396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9866375349872327</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9692706939067862</v>
+        <v>0.9697858903041638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9951809449905643</v>
+        <v>0.9952020443312843</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5458</v>
+        <v>6571</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.007695303369998224</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03736722211855453</v>
+        <v>0.0449837664724023</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5681</v>
+        <v>4575</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003862868578065845</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01952404513626211</v>
+        <v>0.01572209956695813</v>
       </c>
     </row>
     <row r="13">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4630</v>
+        <v>5502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006347321898314039</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03194714373124798</v>
+        <v>0.03796595134227401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1380,19 +1380,19 @@
         <v>3450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9182</v>
+        <v>8776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02362203757746094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007142831965008901</v>
+        <v>0.007203460662926264</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06285927869542519</v>
+        <v>0.0600847524657766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1401,19 +1401,19 @@
         <v>4370</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1077</v>
+        <v>1167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10435</v>
+        <v>10244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01501883921004977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003702296289360879</v>
+        <v>0.00400945265053034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03586272097844064</v>
+        <v>0.0352045152590405</v>
       </c>
     </row>
     <row r="14">
@@ -1430,7 +1430,7 @@
         <v>143996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140286</v>
+        <v>139414</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>144916</v>
@@ -1439,7 +1439,7 @@
         <v>0.993652678101686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.968052856268752</v>
+        <v>0.9620340486577259</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1451,19 +1451,19 @@
         <v>141493</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135619</v>
+        <v>135180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144953</v>
+        <v>144827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9686826590525408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9284681756369956</v>
+        <v>0.9254647985024701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9923747822921911</v>
+        <v>0.9915118616607412</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>279</v>
@@ -1472,19 +1472,19 @@
         <v>285490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278749</v>
+        <v>278850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>288994</v>
+        <v>288928</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9811182922118844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579525702363815</v>
+        <v>0.9583006031228656</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931616183443501</v>
+        <v>0.9929355837550889</v>
       </c>
     </row>
     <row r="15">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6122</v>
+        <v>5855</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003755410444012631</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01260269390757323</v>
+        <v>0.01205256114839337</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1813,19 +1813,19 @@
         <v>4363</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10273</v>
+        <v>10521</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006599654076084473</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001706829497869748</v>
+        <v>0.001696942507489746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01553918636938285</v>
+        <v>0.01591450516628116</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1834,19 +1834,19 @@
         <v>6188</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2625</v>
+        <v>2129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12531</v>
+        <v>12915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005394905349795041</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002288706963534369</v>
+        <v>0.001856399169271775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01092592008703213</v>
+        <v>0.01126090655113357</v>
       </c>
     </row>
     <row r="21">
@@ -1863,19 +1863,19 @@
         <v>7225</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3486</v>
+        <v>3421</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14578</v>
+        <v>14247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01487317257213702</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007176333183872429</v>
+        <v>0.007042734230469279</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03000783409508679</v>
+        <v>0.02932647188928651</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1884,19 +1884,19 @@
         <v>8696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4141</v>
+        <v>4184</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16358</v>
+        <v>16363</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01315396043141959</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00626428026602924</v>
+        <v>0.006329158753803629</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02474317072585387</v>
+        <v>0.02475127165101673</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -1905,19 +1905,19 @@
         <v>15922</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9661</v>
+        <v>9646</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25500</v>
+        <v>24913</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01388217464394185</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008423199642584742</v>
+        <v>0.008410187681707884</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0222331921983328</v>
+        <v>0.02172184309463085</v>
       </c>
     </row>
     <row r="22">
@@ -1934,19 +1934,19 @@
         <v>476754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>468874</v>
+        <v>469290</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>481330</v>
+        <v>481276</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9813714169838503</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9651512665307747</v>
+        <v>0.9660068033555926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9907912205618034</v>
+        <v>0.9906784543085936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>632</v>
@@ -1955,19 +1955,19 @@
         <v>648053</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>639708</v>
+        <v>638975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>654391</v>
+        <v>654572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.980246385492496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9676241934739834</v>
+        <v>0.9665150709058911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9898342042531308</v>
+        <v>0.9901078144011775</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1128</v>
@@ -1976,19 +1976,19 @@
         <v>1124807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1114222</v>
+        <v>1115131</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1132819</v>
+        <v>1132572</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9807229200062632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9714937763120839</v>
+        <v>0.972286758473585</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.987708896936185</v>
+        <v>0.987493559041662</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5751</v>
+        <v>5388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007719684519461542</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04181861093193258</v>
+        <v>0.0391746717859327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2341,19 +2341,19 @@
         <v>5557</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1886</v>
+        <v>2082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11971</v>
+        <v>11902</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02577272678333349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008744280409522067</v>
+        <v>0.009653717568449502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0555132321469204</v>
+        <v>0.05519418930309338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2362,19 +2362,19 @@
         <v>6619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2518</v>
+        <v>2940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13761</v>
+        <v>14539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0187423677084405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007130983593964026</v>
+        <v>0.008323411076939059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03896408630445541</v>
+        <v>0.041166939880363</v>
       </c>
     </row>
     <row r="5">
@@ -2391,19 +2391,19 @@
         <v>4332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11041</v>
+        <v>10326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03149625074491255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007894064424121074</v>
+        <v>0.007857426634909712</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0802821258094374</v>
+        <v>0.07508030291716172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -2412,19 +2412,19 @@
         <v>7677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3281</v>
+        <v>3373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15137</v>
+        <v>15307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03560156459435471</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01521368086582753</v>
+        <v>0.01564035434813435</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07019946730441534</v>
+        <v>0.07098408734248168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -2433,19 +2433,19 @@
         <v>12009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6206</v>
+        <v>5649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21348</v>
+        <v>20238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03400284067542453</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01757248183261675</v>
+        <v>0.01599533862190703</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0604474969486508</v>
+        <v>0.05730480517637582</v>
       </c>
     </row>
     <row r="6">
@@ -2462,19 +2462,19 @@
         <v>132140</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125457</v>
+        <v>125765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135413</v>
+        <v>135429</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9607840647356259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9121955261967537</v>
+        <v>0.914436778417422</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9845842101934765</v>
+        <v>0.9847030218886029</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>189</v>
@@ -2483,19 +2483,19 @@
         <v>202400</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>193148</v>
+        <v>193684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>208461</v>
+        <v>208163</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9386257086223118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8957211999651545</v>
+        <v>0.8982091696726464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9667332560770465</v>
+        <v>0.9653532622731325</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>307</v>
@@ -2504,19 +2504,19 @@
         <v>334539</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>323628</v>
+        <v>324374</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>341248</v>
+        <v>342037</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.947254791616135</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9163593026466975</v>
+        <v>0.9184717174698148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9662518305205163</v>
+        <v>0.9684849969792739</v>
       </c>
     </row>
     <row r="7">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4099</v>
+        <v>5261</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005784943124470701</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02376927646911343</v>
+        <v>0.03050409883093362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -2629,19 +2629,19 @@
         <v>4347</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10383</v>
+        <v>9856</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01759487143343932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004434759647531997</v>
+        <v>0.004414493852172613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04202640257138585</v>
+        <v>0.03989151776079819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -2650,19 +2650,19 @@
         <v>5345</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2059</v>
+        <v>2105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11906</v>
+        <v>11474</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01273985870281815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004908265356288742</v>
+        <v>0.005017795706914533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02837966023569866</v>
+        <v>0.02734882938072117</v>
       </c>
     </row>
     <row r="9">
@@ -2679,19 +2679,19 @@
         <v>8493</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3270</v>
+        <v>3172</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19088</v>
+        <v>17963</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04924476295424393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01896100808955153</v>
+        <v>0.01839173081549665</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1106755519054999</v>
+        <v>0.1041541752387628</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -2700,19 +2700,19 @@
         <v>7539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3124</v>
+        <v>3306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15040</v>
+        <v>15746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03051324262043813</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01264251657677863</v>
+        <v>0.01338217807888443</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06087581629678412</v>
+        <v>0.06373220421266947</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -2721,19 +2721,19 @@
         <v>16032</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8654</v>
+        <v>8725</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26492</v>
+        <v>26703</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03821369323328851</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02062782738285747</v>
+        <v>0.02079785897943956</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06314495949913217</v>
+        <v>0.06364790286698643</v>
       </c>
     </row>
     <row r="10">
@@ -2750,19 +2750,19 @@
         <v>162979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152320</v>
+        <v>154111</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168250</v>
+        <v>168337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9449702939212854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8831697025576043</v>
+        <v>0.8935523284256407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9755330842364599</v>
+        <v>0.9760386247189529</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -2771,19 +2771,19 @@
         <v>235181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226403</v>
+        <v>225583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>241508</v>
+        <v>240547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9518918859461225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9163611160232168</v>
+        <v>0.9130458439429076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9774999792808862</v>
+        <v>0.9736090367876247</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>375</v>
@@ -2792,19 +2792,19 @@
         <v>398159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>386353</v>
+        <v>386077</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>406697</v>
+        <v>406142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9490464480638934</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9209047090891905</v>
+        <v>0.9202484320662438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9693977596731753</v>
+        <v>0.9680739686312235</v>
       </c>
     </row>
     <row r="11">
@@ -2896,19 +2896,19 @@
         <v>3047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8232</v>
+        <v>8270</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01832765494466313</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005789226380368845</v>
+        <v>0.005863678636435182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04952090112308355</v>
+        <v>0.04974832667196961</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7590</v>
+        <v>6845</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01128946963398498</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03951923452044276</v>
+        <v>0.03563973318045847</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -2938,19 +2938,19 @@
         <v>5215</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11562</v>
+        <v>11721</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01455481495743349</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005662938253978058</v>
+        <v>0.005635777103749275</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03226890122313548</v>
+        <v>0.03271195326733319</v>
       </c>
     </row>
     <row r="13">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5248</v>
+        <v>5086</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006223612974379433</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03156908539206912</v>
+        <v>0.03059700797501788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2988,19 +2988,19 @@
         <v>6405</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2167</v>
+        <v>2180</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15243</v>
+        <v>15466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03334573630713873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0112842385065944</v>
+        <v>0.01135057599780762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07936347016479255</v>
+        <v>0.0805228799810893</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3009,19 +3009,19 @@
         <v>7439</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3211</v>
+        <v>3121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15969</v>
+        <v>16802</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02076250715398562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008962252891132767</v>
+        <v>0.008710935605815054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04456793398993211</v>
+        <v>0.04689420367221855</v>
       </c>
     </row>
     <row r="14">
@@ -3038,19 +3038,19 @@
         <v>162154</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156709</v>
+        <v>156312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>165217</v>
+        <v>165213</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9754487320809574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9426954038995662</v>
+        <v>0.9403052932112186</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938784107311657</v>
+        <v>0.9938533301390936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -3059,19 +3059,19 @@
         <v>183498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174656</v>
+        <v>173881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188794</v>
+        <v>188739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9553647940588763</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9093289559298198</v>
+        <v>0.9052944392227701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.982938939390721</v>
+        <v>0.9826539755437332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>319</v>
@@ -3080,19 +3080,19 @@
         <v>345652</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>336281</v>
+        <v>335583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>351924</v>
+        <v>351701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9646826778885809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9385303215532353</v>
+        <v>0.9365813004113103</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9821877388136944</v>
+        <v>0.9815661625044647</v>
       </c>
     </row>
     <row r="15">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5388</v>
+        <v>5335</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01270247634288152</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06335462176194791</v>
+        <v>0.06273149420626291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7269</v>
+        <v>6757</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01294899477260006</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04455411792977505</v>
+        <v>0.04141783819106343</v>
       </c>
     </row>
     <row r="17">
@@ -3302,7 +3302,7 @@
         <v>77065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72988</v>
+        <v>72995</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>78097</v>
@@ -3311,7 +3311,7 @@
         <v>0.9867825380035947</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.934587227591315</v>
+        <v>0.9346755260225961</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -3323,7 +3323,7 @@
         <v>83970</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79662</v>
+        <v>79715</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85050</v>
@@ -3332,7 +3332,7 @@
         <v>0.9872975236571185</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9366453782380521</v>
+        <v>0.937268505793737</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>161033</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>155877</v>
+        <v>156389</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>163146</v>
@@ -3353,7 +3353,7 @@
         <v>0.9870510052274</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9554458820702251</v>
+        <v>0.9585821618089365</v>
       </c>
       <c r="W18" s="6" t="n">
         <v>1</v>
@@ -3448,19 +3448,19 @@
         <v>6138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2926</v>
+        <v>2097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12310</v>
+        <v>12485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0110734170472363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005277850328855762</v>
+        <v>0.003782762765645513</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02220648690844344</v>
+        <v>0.02252243862196953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3469,19 +3469,19 @@
         <v>13153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7475</v>
+        <v>6579</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21867</v>
+        <v>21737</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01777902414935652</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01010334488508859</v>
+        <v>0.00889213102375918</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02955658982644507</v>
+        <v>0.02938171903168994</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -3490,19 +3490,19 @@
         <v>19292</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11593</v>
+        <v>11250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29785</v>
+        <v>29341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01490676702316615</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008958217746502918</v>
+        <v>0.008692870846232225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02301527491784107</v>
+        <v>0.02267197248469075</v>
       </c>
     </row>
     <row r="21">
@@ -3519,19 +3519,19 @@
         <v>13860</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7240</v>
+        <v>7271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25739</v>
+        <v>24001</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02500221737136854</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01306135167190448</v>
+        <v>0.01311690585999067</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04643269551745161</v>
+        <v>0.04329765321055235</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3540,19 +3540,19 @@
         <v>21620</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>13768</v>
+        <v>13446</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32017</v>
+        <v>33115</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02922388396473259</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01861031291326581</v>
+        <v>0.01817417125846941</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04327621796698548</v>
+        <v>0.0447606512426481</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -3561,19 +3561,19 @@
         <v>35480</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25486</v>
+        <v>24163</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52430</v>
+        <v>52722</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02741558953702063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01969349146764528</v>
+        <v>0.01867058317846603</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04051297016044592</v>
+        <v>0.04073839620739367</v>
       </c>
     </row>
     <row r="22">
@@ -3590,19 +3590,19 @@
         <v>534336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>522506</v>
+        <v>523354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>541954</v>
+        <v>542259</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9639243655813952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9425826923726683</v>
+        <v>0.9441131053189048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9776665363654538</v>
+        <v>0.978217312613425</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>660</v>
@@ -3611,19 +3611,19 @@
         <v>705047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>691982</v>
+        <v>692856</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>715908</v>
+        <v>715891</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9529970918859109</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9353376974838918</v>
+        <v>0.9365191015043027</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.967676645787808</v>
+        <v>0.9676540073770172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1142</v>
@@ -3632,19 +3632,19 @@
         <v>1239383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1220177</v>
+        <v>1221332</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1252951</v>
+        <v>1253327</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9576776434398132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9428371834833772</v>
+        <v>0.943729132792276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9681617858148396</v>
+        <v>0.9684519213952878</v>
       </c>
     </row>
     <row r="23">
@@ -3989,19 +3989,19 @@
         <v>3878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11376</v>
+        <v>11371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01489192411588042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004801943915796718</v>
+        <v>0.004777910829922479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04369100155281246</v>
+        <v>0.04367016830573938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4010,19 +4010,19 @@
         <v>3878</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9231</v>
+        <v>10367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009084428180898435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002910520641230503</v>
+        <v>0.002888933848430502</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02162737525657051</v>
+        <v>0.02428757009427324</v>
       </c>
     </row>
     <row r="5">
@@ -4039,19 +4039,19 @@
         <v>4383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9508</v>
+        <v>10027</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02632918861149294</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009896947113581965</v>
+        <v>0.009855606284002361</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05711892378608569</v>
+        <v>0.06024026401322961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4060,19 +4060,19 @@
         <v>11777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5165</v>
+        <v>5665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19526</v>
+        <v>20312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04523217118473514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01983783529683695</v>
+        <v>0.02175623547205313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07499028339489931</v>
+        <v>0.07801019711518126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4081,19 +4081,19 @@
         <v>16160</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9529</v>
+        <v>9094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25899</v>
+        <v>25486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03786045792599824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.022325435893046</v>
+        <v>0.02130644162412531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06067624820592405</v>
+        <v>0.05970884903812706</v>
       </c>
     </row>
     <row r="6">
@@ -4110,19 +4110,19 @@
         <v>162071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>156946</v>
+        <v>156427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164807</v>
+        <v>164813</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9736708113885071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9428810762139144</v>
+        <v>0.9397597359867711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.990103052886418</v>
+        <v>0.9901443937159976</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>209</v>
@@ -4131,19 +4131,19 @@
         <v>244723</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>235489</v>
+        <v>233522</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>252091</v>
+        <v>251788</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9398759046993844</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.904412248328896</v>
+        <v>0.8968565584187627</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9681722018077558</v>
+        <v>0.9670109776220541</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>380</v>
@@ -4152,19 +4152,19 @@
         <v>406794</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>396388</v>
+        <v>396332</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>414656</v>
+        <v>415390</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9530551138931034</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.928674240053407</v>
+        <v>0.9285431400877469</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9714745320832583</v>
+        <v>0.9731924705589315</v>
       </c>
     </row>
     <row r="7">
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5265</v>
+        <v>5783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004698708405612392</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02384514053580954</v>
+        <v>0.02619040252744086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6259</v>
+        <v>5116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002656380703771732</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01602631113687862</v>
+        <v>0.0130988811651947</v>
       </c>
     </row>
     <row r="9">
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5030</v>
+        <v>5822</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009682624728983421</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02962951882370301</v>
+        <v>0.03429519477417407</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -4340,19 +4340,19 @@
         <v>5068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1386</v>
+        <v>1311</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11964</v>
+        <v>11535</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02295446491065252</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006276536970140639</v>
+        <v>0.005939543356382167</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05418158507948603</v>
+        <v>0.05224086250461163</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -4361,19 +4361,19 @@
         <v>6712</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2843</v>
+        <v>2582</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14587</v>
+        <v>14189</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01718576327659314</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007279148266121715</v>
+        <v>0.006609959024911129</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0373491850913805</v>
+        <v>0.03632915656760505</v>
       </c>
     </row>
     <row r="10">
@@ -4390,7 +4390,7 @@
         <v>168119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164733</v>
+        <v>163941</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>169763</v>
@@ -4399,7 +4399,7 @@
         <v>0.9903173752710166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.970370481176297</v>
+        <v>0.9657048052258259</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -4411,19 +4411,19 @@
         <v>214699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207092</v>
+        <v>207979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218420</v>
+        <v>219422</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9723468266837351</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.937897496293879</v>
+        <v>0.9419138326002001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9891982118568662</v>
+        <v>0.9937358646134156</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>364</v>
@@ -4432,19 +4432,19 @@
         <v>382818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374985</v>
+        <v>374653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>387033</v>
+        <v>387228</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9801578560196351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9601009300177756</v>
+        <v>0.9592507873160436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9909482755025915</v>
+        <v>0.9914470956446901</v>
       </c>
     </row>
     <row r="11">
@@ -4549,19 +4549,19 @@
         <v>4438</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11760</v>
+        <v>12480</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0241050068999761</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006510534032187739</v>
+        <v>0.006477830169158162</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06387587091349319</v>
+        <v>0.06778960070693112</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -4570,19 +4570,19 @@
         <v>4438</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12924</v>
+        <v>12552</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01305728895473581</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003489675972521835</v>
+        <v>0.003456674316759625</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03802542432975726</v>
+        <v>0.03692989518275924</v>
       </c>
     </row>
     <row r="13">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4726</v>
+        <v>3878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006109568047529966</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03034177677304105</v>
+        <v>0.02489567156970279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8755</v>
+        <v>7933</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01401542947099117</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0475532399167885</v>
+        <v>0.04308679924264927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -4641,19 +4641,19 @@
         <v>3532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9791</v>
+        <v>9991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01039204419327769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002767563900842157</v>
+        <v>0.002838269503547081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02880712519909423</v>
+        <v>0.02939576278542889</v>
       </c>
     </row>
     <row r="14">
@@ -4670,7 +4670,7 @@
         <v>154819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151045</v>
+        <v>151893</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>155771</v>
@@ -4679,7 +4679,7 @@
         <v>0.9938904319524701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9696582232269588</v>
+        <v>0.9751043284302973</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4691,19 +4691,19 @@
         <v>177088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168619</v>
+        <v>168724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181616</v>
+        <v>181661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9618795636290327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9158786757509657</v>
+        <v>0.9164483996968529</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9864739065200778</v>
+        <v>0.9867214355797339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>312</v>
@@ -4712,19 +4712,19 @@
         <v>331907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>323733</v>
+        <v>321896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>336908</v>
+        <v>336665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9765506668519865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9525014044888017</v>
+        <v>0.9470960769286444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9912648816111017</v>
+        <v>0.9905497609158834</v>
       </c>
     </row>
     <row r="15">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3935</v>
+        <v>5044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01036827983147021</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04474206848246023</v>
+        <v>0.05734925887282002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4630</v>
+        <v>4925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004688577623238146</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02380481118967924</v>
+        <v>0.0253218104806959</v>
       </c>
     </row>
     <row r="17">
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4351</v>
+        <v>4032</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00911397630931142</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04946883490856258</v>
+        <v>0.04584138147000592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7644</v>
+        <v>6992</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02040424262400294</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07174919218911688</v>
+        <v>0.06563212506445483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -4924,16 +4924,16 @@
         <v>798</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8347</v>
+        <v>8969</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01529873902418778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00410474765180293</v>
+        <v>0.004102571931963681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04292137321900634</v>
+        <v>0.04612006245311333</v>
       </c>
     </row>
     <row r="18">
@@ -4950,7 +4950,7 @@
         <v>86232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82726</v>
+        <v>82516</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>87945</v>
@@ -4959,7 +4959,7 @@
         <v>0.9805177438592184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9406591692021087</v>
+        <v>0.9382734543198956</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -4971,7 +4971,7 @@
         <v>104362</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98892</v>
+        <v>99544</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>106536</v>
@@ -4980,7 +4980,7 @@
         <v>0.979595757375997</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.928250807810883</v>
+        <v>0.9343678749355453</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -4992,19 +4992,19 @@
         <v>190594</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>185262</v>
+        <v>184726</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>193564</v>
+        <v>193520</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9800126833525741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.952598940052069</v>
+        <v>0.9498413389571965</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9952834274441184</v>
+        <v>0.9950605537743844</v>
       </c>
     </row>
     <row r="19">
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4574</v>
+        <v>5054</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001572317917496297</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007886703392557488</v>
+        <v>0.008714039958637468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5117,19 +5117,19 @@
         <v>9353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3838</v>
+        <v>3747</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18586</v>
+        <v>18661</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0121179064619043</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004972321583859605</v>
+        <v>0.004854724617810075</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02408005292648874</v>
+        <v>0.02417750919686409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -5138,19 +5138,19 @@
         <v>10265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4598</v>
+        <v>4494</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18992</v>
+        <v>19957</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007593617774290117</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003401822492549886</v>
+        <v>0.003324606144019062</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01404999501617173</v>
+        <v>0.01476353608965644</v>
       </c>
     </row>
     <row r="21">
@@ -5167,19 +5167,19 @@
         <v>7780</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3820</v>
+        <v>3440</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14950</v>
+        <v>14389</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01341460405859223</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006587090217952164</v>
+        <v>0.005931130181345298</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02577849783861363</v>
+        <v>0.02481204709492208</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -5188,19 +5188,19 @@
         <v>21600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12498</v>
+        <v>12156</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33275</v>
+        <v>34661</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02798565385152139</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01619314518823574</v>
+        <v>0.0157502491157902</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04311219179176097</v>
+        <v>0.04490789642116433</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -5209,19 +5209,19 @@
         <v>29380</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19519</v>
+        <v>19442</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42104</v>
+        <v>41600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02173435403385786</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01443999898679581</v>
+        <v>0.01438310687379182</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03114792790652129</v>
+        <v>0.03077510525537809</v>
       </c>
     </row>
     <row r="22">
@@ -5238,19 +5238,19 @@
         <v>571243</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>564079</v>
+        <v>563376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>575608</v>
+        <v>575640</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9850130780239115</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9726601442580213</v>
+        <v>0.9714481097882351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9925402907592104</v>
+        <v>0.9925954338664245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>626</v>
@@ -5259,19 +5259,19 @@
         <v>740871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>726782</v>
+        <v>726641</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>752163</v>
+        <v>752155</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9598964396865743</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9416424026260936</v>
+        <v>0.941459871916132</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.974526453328835</v>
+        <v>0.9745166932346536</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1232</v>
@@ -5280,19 +5280,19 @@
         <v>1312114</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1297434</v>
+        <v>1297853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1324262</v>
+        <v>1323500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9706720281918521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9598123837549427</v>
+        <v>0.9601219983049053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9796588019192901</v>
+        <v>0.9790951190807172</v>
       </c>
     </row>
     <row r="23">
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3111</v>
+        <v>3087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009065218702050177</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04624890483697006</v>
+        <v>0.04589191761354418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -5645,19 +5645,19 @@
         <v>2162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>555</v>
+        <v>716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6624</v>
+        <v>5926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01511422054081986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003877507316421317</v>
+        <v>0.005005419898379608</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04631991839944095</v>
+        <v>0.04143375736769786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -5666,19 +5666,19 @@
         <v>2771</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>968</v>
+        <v>873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6899</v>
+        <v>6882</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01317899060413805</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004602920245061111</v>
+        <v>0.004151098322515891</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03280639940786569</v>
+        <v>0.03272428605190864</v>
       </c>
     </row>
     <row r="5">
@@ -5708,19 +5708,19 @@
         <v>4635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2158</v>
+        <v>2109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8686</v>
+        <v>9139</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03240838077359808</v>
+        <v>0.03240838077359807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01509228960008084</v>
+        <v>0.01474613982873502</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0607386128400113</v>
+        <v>0.06390554890482339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -5729,19 +5729,19 @@
         <v>4635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2014</v>
+        <v>2225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9409</v>
+        <v>9110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02204011335624078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009576556091455005</v>
+        <v>0.01057992425342465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0447418219677916</v>
+        <v>0.04331927318066589</v>
       </c>
     </row>
     <row r="6">
@@ -5758,7 +5758,7 @@
         <v>66667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64166</v>
+        <v>64190</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>67277</v>
@@ -5767,7 +5767,7 @@
         <v>0.9909347812979499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9537510951630298</v>
+        <v>0.9541080823864557</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5779,19 +5779,19 @@
         <v>136217</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>131230</v>
+        <v>131291</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139180</v>
+        <v>139530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.952477398685582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9176101306320473</v>
+        <v>0.9180381745795966</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9731987632230091</v>
+        <v>0.9756456072284786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>347</v>
@@ -5800,19 +5800,19 @@
         <v>202884</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197534</v>
+        <v>197911</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206165</v>
+        <v>206247</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9647808960396211</v>
+        <v>0.9647808960396212</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9393413667948042</v>
+        <v>0.9411348200734471</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9803834322256416</v>
+        <v>0.9807723113861123</v>
       </c>
     </row>
     <row r="7">
@@ -5904,19 +5904,19 @@
         <v>1771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466</v>
+        <v>600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4339</v>
+        <v>4521</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008795359353980762</v>
+        <v>0.008795359353980764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002317193996838259</v>
+        <v>0.002978934971566243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02155342672963743</v>
+        <v>0.02245713339094422</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5925,19 +5925,19 @@
         <v>1829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4540</v>
+        <v>4534</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006050987191108045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001513918251655907</v>
+        <v>0.001503502952040748</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01501799805586441</v>
+        <v>0.01499644568493626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -5946,19 +5946,19 @@
         <v>3600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1675</v>
+        <v>1700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7030</v>
+        <v>7012</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007147906569580698</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003324821940330291</v>
+        <v>0.003375756248031011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01395911980114529</v>
+        <v>0.01392313043666677</v>
       </c>
     </row>
     <row r="9">
@@ -5975,19 +5975,19 @@
         <v>4474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2033</v>
+        <v>1753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9041</v>
+        <v>8715</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02222289623885092</v>
+        <v>0.02222289623885093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01009751836417062</v>
+        <v>0.008706675570595835</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04491300840313597</v>
+        <v>0.04329417126564507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -5996,19 +5996,19 @@
         <v>7473</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4304</v>
+        <v>4041</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12610</v>
+        <v>12592</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02471872748379166</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01423567322604792</v>
+        <v>0.01336705325694271</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04170696161556611</v>
+        <v>0.04165011244726972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -6017,19 +6017,19 @@
         <v>11947</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7535</v>
+        <v>7514</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18749</v>
+        <v>18179</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02372114935098213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01496047787590813</v>
+        <v>0.01492027848867057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03722627910793694</v>
+        <v>0.03609547537195107</v>
       </c>
     </row>
     <row r="10">
@@ -6046,19 +6046,19 @@
         <v>195060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190236</v>
+        <v>190365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198112</v>
+        <v>198246</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9689817444071683</v>
+        <v>0.9689817444071684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9450161137265517</v>
+        <v>0.9456595659166693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9841434785288626</v>
+        <v>0.9848098448637949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>549</v>
@@ -6067,19 +6067,19 @@
         <v>293034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>287307</v>
+        <v>287854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>296546</v>
+        <v>296532</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9692302853251002</v>
+        <v>0.9692302853251004</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9502869822553639</v>
+        <v>0.9520949472148023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.980845204735041</v>
+        <v>0.9807996074331871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>833</v>
@@ -6088,19 +6088,19 @@
         <v>488094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>480660</v>
+        <v>481353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>493028</v>
+        <v>493420</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9691309440794373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.954370301974938</v>
+        <v>0.9557466128058771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9789280664914416</v>
+        <v>0.9797051966383553</v>
       </c>
     </row>
     <row r="11">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1798</v>
+        <v>2445</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001495307999741915</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.007839151111855409</v>
+        <v>0.01066198842864333</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -6213,19 +6213,19 @@
         <v>3724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1650</v>
+        <v>1809</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7186</v>
+        <v>7545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01574652453683944</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006976222332217083</v>
+        <v>0.007646683073027725</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03038240130240277</v>
+        <v>0.03189948860254414</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -6234,19 +6234,19 @@
         <v>4067</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1735</v>
+        <v>1967</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7163</v>
+        <v>7804</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.008730967082744812</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003724633715151838</v>
+        <v>0.00422309792373284</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0153771234394465</v>
+        <v>0.01675250639709435</v>
       </c>
     </row>
     <row r="13">
@@ -6263,19 +6263,19 @@
         <v>2906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6903</v>
+        <v>6953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01267298649028872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004296406741357782</v>
+        <v>0.004333606712604705</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03010136554884367</v>
+        <v>0.03032158177944118</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -6284,19 +6284,19 @@
         <v>4381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8441</v>
+        <v>9036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01852279398524864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007838866514618938</v>
+        <v>0.007873468843284263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03569098593789798</v>
+        <v>0.03820700343438869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -6305,19 +6305,19 @@
         <v>7287</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4104</v>
+        <v>3885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12292</v>
+        <v>11720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01564306364998541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008809674575579017</v>
+        <v>0.008340290672127885</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02638773341019179</v>
+        <v>0.02515919177999308</v>
       </c>
     </row>
     <row r="14">
@@ -6334,19 +6334,19 @@
         <v>226065</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>222186</v>
+        <v>221950</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228091</v>
+        <v>228011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9858317055099693</v>
+        <v>0.9858317055099695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9689144539122148</v>
+        <v>0.9678861071219073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9946660226595697</v>
+        <v>0.9943191531026453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>433</v>
@@ -6355,19 +6355,19 @@
         <v>228404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>223146</v>
+        <v>223627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231843</v>
+        <v>231959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.965730681477912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.943500471359404</v>
+        <v>0.9455317787618606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9802710047243246</v>
+        <v>0.9807626825842309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>756</v>
@@ -6376,19 +6376,19 @@
         <v>454469</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>449390</v>
+        <v>448843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458905</v>
+        <v>458843</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9756259692672697</v>
+        <v>0.9756259692672696</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647224312345198</v>
+        <v>0.9635480535697117</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9851482978424418</v>
+        <v>0.9850157175913137</v>
       </c>
     </row>
     <row r="15">
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2267</v>
+        <v>2128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002025540726601451</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01087892589681662</v>
+        <v>0.01021018323987926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2080</v>
+        <v>2115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001002020285570598</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.004939016806585229</v>
+        <v>0.005020599500175065</v>
       </c>
     </row>
     <row r="17">
@@ -6543,19 +6543,19 @@
         <v>2294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5778</v>
+        <v>5302</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0107798880786518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002587950442503789</v>
+        <v>0.002790351083431694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02714517797678249</v>
+        <v>0.02490967364743446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -6564,19 +6564,19 @@
         <v>8083</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4576</v>
+        <v>4323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14859</v>
+        <v>14701</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03879190235359569</v>
+        <v>0.0387919023535957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02196139312176819</v>
+        <v>0.02074641359954756</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07130930483692553</v>
+        <v>0.07055215450348938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -6585,19 +6585,19 @@
         <v>10378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6370</v>
+        <v>6201</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17738</v>
+        <v>18107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02463722808399536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0151227982708221</v>
+        <v>0.01472126926347025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.042111092234174</v>
+        <v>0.0429860429959048</v>
       </c>
     </row>
     <row r="18">
@@ -6614,19 +6614,19 @@
         <v>210552</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>207068</v>
+        <v>207544</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212295</v>
+        <v>212252</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9892201119213483</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9728548220232174</v>
+        <v>0.9750903263525675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9974120495574962</v>
+        <v>0.9972096489165683</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>381</v>
@@ -6638,16 +6638,16 @@
         <v>193466</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203468</v>
+        <v>203739</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9591825569198029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9284510382171302</v>
+        <v>0.928449030204571</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9764527865310327</v>
+        <v>0.9777493121810372</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>679</v>
@@ -6656,19 +6656,19 @@
         <v>410420</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>402881</v>
+        <v>403070</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414453</v>
+        <v>414813</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.974360751630434</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9564619957474428</v>
+        <v>0.9569100062030998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9839337525960765</v>
+        <v>0.984788593517308</v>
       </c>
     </row>
     <row r="19">
@@ -6760,19 +6760,19 @@
         <v>2723</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1013</v>
+        <v>1088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5941</v>
+        <v>5966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003831660409300819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001425477990388194</v>
+        <v>0.001530836481908752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008359444480619151</v>
+        <v>0.00839363877313009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -6781,19 +6781,19 @@
         <v>8137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4777</v>
+        <v>4797</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13526</v>
+        <v>12981</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009140556921415953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005366148633194606</v>
+        <v>0.005388136822712847</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01519392502116849</v>
+        <v>0.0145816406417877</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -6802,19 +6802,19 @@
         <v>10861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7080</v>
+        <v>6836</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16488</v>
+        <v>15643</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006783709395987141</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004422159174064404</v>
+        <v>0.004269734431194867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01029872491876821</v>
+        <v>0.009771226374088402</v>
       </c>
     </row>
     <row r="21">
@@ -6831,19 +6831,19 @@
         <v>9674</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5666</v>
+        <v>5567</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15717</v>
+        <v>15919</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0136113004546666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007972036796109847</v>
+        <v>0.007832047743383823</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02211403623848435</v>
+        <v>0.02239834896363816</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -6852,19 +6852,19 @@
         <v>24572</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17735</v>
+        <v>17711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32644</v>
+        <v>33019</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02760203568912771</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01992183453984578</v>
+        <v>0.0198945718953706</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03666850374768123</v>
+        <v>0.03709075250829532</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -6873,19 +6873,19 @@
         <v>34246</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26329</v>
+        <v>26011</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>45346</v>
+        <v>43850</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02139094650307536</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0164458604282858</v>
+        <v>0.01624702605912874</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02832394032806716</v>
+        <v>0.0273893999420098</v>
       </c>
     </row>
     <row r="22">
@@ -6902,19 +6902,19 @@
         <v>698344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>692191</v>
+        <v>691728</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>702732</v>
+        <v>702881</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9825570391360327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9739001605567804</v>
+        <v>0.9732484137664887</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9887321043575106</v>
+        <v>0.9889405285795689</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1617</v>
@@ -6923,19 +6923,19 @@
         <v>857524</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>847871</v>
+        <v>847926</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>865398</v>
+        <v>865245</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9632574073894564</v>
+        <v>0.9632574073894563</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9524151721361168</v>
+        <v>0.9524762654997497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9721026363077402</v>
+        <v>0.9719312067093666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2615</v>
@@ -6944,19 +6944,19 @@
         <v>1555867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1544336</v>
+        <v>1545391</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1565251</v>
+        <v>1564674</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9718253441009376</v>
+        <v>0.9718253441009375</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9646228709333199</v>
+        <v>0.9652820002332566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9776868909462899</v>
+        <v>0.9773262009695125</v>
       </c>
     </row>
     <row r="23">
